--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G3_Backlog_V10.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G3_Backlog_V10.0.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{228D461F-0ECA-41C1-BE0C-ACFBAB2996FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6E997F-D647-4342-8B76-9335E7DFBFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="sprint0" sheetId="2" r:id="rId2"/>
+    <sheet name="sprint3" sheetId="2" r:id="rId2"/>
     <sheet name="burdonchart" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1228,7 +1228,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2405,7 +2405,7 @@
   </sheetPr>
   <dimension ref="B1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
